--- a/staffing/staff_list.xlsx
+++ b/staffing/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F22F6C-F83C-434C-982F-BCE6025B868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2E25A-5C8D-4ACF-8112-DD6A73097387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>名前</t>
   </si>
@@ -221,121 +221,61 @@
     <t>上田</t>
   </si>
   <si>
-    <t>原</t>
-  </si>
-  <si>
     <t>森田</t>
   </si>
   <si>
-    <t>酒井</t>
-  </si>
-  <si>
     <t>横山</t>
   </si>
   <si>
-    <t>柴田</t>
-  </si>
-  <si>
     <t>宮崎</t>
   </si>
   <si>
-    <t>宮本</t>
-  </si>
-  <si>
     <t>内田</t>
   </si>
   <si>
-    <t>高木</t>
-  </si>
-  <si>
     <t>谷口</t>
   </si>
   <si>
-    <t>安藤</t>
-  </si>
-  <si>
     <t>丸山</t>
   </si>
   <si>
-    <t>今井</t>
-  </si>
-  <si>
     <t>大野</t>
   </si>
   <si>
-    <t>高田</t>
-  </si>
-  <si>
     <t>菅原</t>
   </si>
   <si>
-    <t>河野</t>
-  </si>
-  <si>
     <t>武田</t>
   </si>
   <si>
-    <t>藤本</t>
-  </si>
-  <si>
     <t>上野</t>
   </si>
   <si>
-    <t>杉山</t>
-  </si>
-  <si>
     <t>千葉</t>
   </si>
   <si>
-    <t>村田</t>
-  </si>
-  <si>
     <t>増田</t>
   </si>
   <si>
-    <t>小島</t>
-  </si>
-  <si>
     <t>小山</t>
   </si>
   <si>
-    <t>大塚</t>
-  </si>
-  <si>
     <t>平野</t>
   </si>
   <si>
-    <t>久保</t>
-  </si>
-  <si>
     <t>渡部</t>
   </si>
   <si>
-    <t>松井</t>
-  </si>
-  <si>
     <t>菊地</t>
   </si>
   <si>
-    <t>岩崎</t>
-  </si>
-  <si>
     <t>松尾</t>
   </si>
   <si>
-    <t>佐野</t>
-  </si>
-  <si>
     <t>木下</t>
   </si>
   <si>
-    <t>野口</t>
-  </si>
-  <si>
     <t>野村</t>
-  </si>
-  <si>
-    <t>新井</t>
   </si>
   <si>
     <t>発送</t>
@@ -695,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -717,31 +657,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -892,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1657,7 +1597,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1686,7 +1626,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1715,7 +1655,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1744,7 +1684,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1773,7 +1713,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1802,7 +1742,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1831,7 +1771,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1860,7 +1800,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1889,7 +1829,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1918,7 +1858,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -1947,7 +1887,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1976,7 +1916,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2005,7 +1945,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2034,7 +1974,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2063,7 +2003,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2092,7 +2032,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -2121,7 +2061,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -2150,7 +2090,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2179,7 +2119,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3074,586 +3014,6 @@
       </c>
       <c r="I81">
         <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82">
-        <v>7</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83">
-        <v>8</v>
-      </c>
-      <c r="H83">
-        <v>6</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>7</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84">
-        <v>7</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>9</v>
-      </c>
-      <c r="H85">
-        <v>10</v>
-      </c>
-      <c r="I85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
-      <c r="H86">
-        <v>9</v>
-      </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87">
-        <v>8</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>8</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="H87">
-        <v>4</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88">
-        <v>4</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>8</v>
-      </c>
-      <c r="I88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89">
-        <v>7</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>7</v>
-      </c>
-      <c r="H89">
-        <v>5</v>
-      </c>
-      <c r="I89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>9</v>
-      </c>
-      <c r="F90">
-        <v>9</v>
-      </c>
-      <c r="G90">
-        <v>6</v>
-      </c>
-      <c r="H90">
-        <v>6</v>
-      </c>
-      <c r="I90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-      <c r="F91">
-        <v>7</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92">
-        <v>8</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>10</v>
-      </c>
-      <c r="F92">
-        <v>5</v>
-      </c>
-      <c r="G92">
-        <v>9</v>
-      </c>
-      <c r="H92">
-        <v>4</v>
-      </c>
-      <c r="I92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>10</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>9</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>9</v>
-      </c>
-      <c r="H93">
-        <v>10</v>
-      </c>
-      <c r="I93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>9</v>
-      </c>
-      <c r="D94">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>5</v>
-      </c>
-      <c r="F94">
-        <v>10</v>
-      </c>
-      <c r="G94">
-        <v>6</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>9</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
-      </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>6</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>5</v>
-      </c>
-      <c r="F96">
-        <v>10</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
-      </c>
-      <c r="D97">
-        <v>6</v>
-      </c>
-      <c r="E97">
-        <v>4</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
-      </c>
-      <c r="I97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
-        <v>5</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <v>9</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99">
-        <v>9</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>9</v>
-      </c>
-      <c r="G99">
-        <v>6</v>
-      </c>
-      <c r="H99">
-        <v>6</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>8</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-      <c r="I100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>10</v>
-      </c>
-      <c r="E101">
-        <v>8</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/staffing/staff_list.xlsx
+++ b/staffing/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2E25A-5C8D-4ACF-8112-DD6A73097387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB614A1E-526E-48F5-AB56-1A79405DD06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>名前</t>
   </si>
@@ -221,61 +221,121 @@
     <t>上田</t>
   </si>
   <si>
+    <t>原</t>
+  </si>
+  <si>
     <t>森田</t>
   </si>
   <si>
+    <t>酒井</t>
+  </si>
+  <si>
     <t>横山</t>
   </si>
   <si>
+    <t>柴田</t>
+  </si>
+  <si>
     <t>宮崎</t>
   </si>
   <si>
+    <t>宮本</t>
+  </si>
+  <si>
     <t>内田</t>
   </si>
   <si>
+    <t>高木</t>
+  </si>
+  <si>
     <t>谷口</t>
   </si>
   <si>
+    <t>安藤</t>
+  </si>
+  <si>
     <t>丸山</t>
   </si>
   <si>
+    <t>今井</t>
+  </si>
+  <si>
     <t>大野</t>
   </si>
   <si>
+    <t>高田</t>
+  </si>
+  <si>
     <t>菅原</t>
   </si>
   <si>
+    <t>河野</t>
+  </si>
+  <si>
     <t>武田</t>
   </si>
   <si>
+    <t>藤本</t>
+  </si>
+  <si>
     <t>上野</t>
   </si>
   <si>
+    <t>杉山</t>
+  </si>
+  <si>
     <t>千葉</t>
   </si>
   <si>
+    <t>村田</t>
+  </si>
+  <si>
     <t>増田</t>
   </si>
   <si>
+    <t>小島</t>
+  </si>
+  <si>
     <t>小山</t>
   </si>
   <si>
+    <t>大塚</t>
+  </si>
+  <si>
     <t>平野</t>
   </si>
   <si>
+    <t>久保</t>
+  </si>
+  <si>
     <t>渡部</t>
   </si>
   <si>
+    <t>松井</t>
+  </si>
+  <si>
     <t>菊地</t>
   </si>
   <si>
+    <t>岩崎</t>
+  </si>
+  <si>
     <t>松尾</t>
   </si>
   <si>
+    <t>佐野</t>
+  </si>
+  <si>
     <t>木下</t>
   </si>
   <si>
+    <t>野口</t>
+  </si>
+  <si>
     <t>野村</t>
+  </si>
+  <si>
+    <t>新井</t>
   </si>
   <si>
     <t>発送</t>
@@ -310,6 +370,17 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掃除</t>
+    <rPh sb="0" eb="2">
+      <t>ソウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -333,12 +404,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,8 +430,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -635,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -650,45 +729,65 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2">
@@ -712,11 +811,20 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="N2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -744,8 +852,20 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -773,8 +893,20 @@
       <c r="I4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -802,8 +934,20 @@
       <c r="I5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -831,11 +975,20 @@
       <c r="I6">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -863,8 +1016,20 @@
       <c r="I7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -892,8 +1057,20 @@
       <c r="I8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -921,15 +1098,27 @@
       <c r="I9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10">
@@ -950,11 +1139,20 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -982,11 +1180,20 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="N11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1014,8 +1221,20 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1043,8 +1262,20 @@
       <c r="I13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1072,8 +1303,20 @@
       <c r="I14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1101,8 +1344,17 @@
       <c r="I15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1130,8 +1382,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1159,8 +1420,17 @@
       <c r="I17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1188,8 +1458,21 @@
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>SUM(N1:N17)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1482,7 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10</v>
       </c>
       <c r="E19">
@@ -1217,8 +1500,17 @@
       <c r="I19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1246,8 +1538,17 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1275,8 +1576,17 @@
       <c r="I21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1304,8 +1614,17 @@
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1333,8 +1652,17 @@
       <c r="I23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1362,8 +1690,17 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1391,8 +1728,17 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1420,8 +1766,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1449,8 +1804,17 @@
       <c r="I27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1478,8 +1842,17 @@
       <c r="I28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1507,8 +1880,17 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1536,8 +1918,17 @@
       <c r="I30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1565,8 +1956,17 @@
       <c r="I31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1579,7 +1979,7 @@
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>8</v>
       </c>
       <c r="F32">
@@ -1594,10 +1994,19 @@
       <c r="I32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1623,10 +2032,19 @@
       <c r="I33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1652,10 +2070,19 @@
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1681,10 +2108,19 @@
       <c r="I35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1710,10 +2146,19 @@
       <c r="I36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1727,7 +2172,7 @@
       <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>6</v>
       </c>
       <c r="G37">
@@ -1739,10 +2184,19 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1768,10 +2222,19 @@
       <c r="I38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1797,10 +2260,19 @@
       <c r="I39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1826,10 +2298,19 @@
       <c r="I40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1855,10 +2336,19 @@
       <c r="I41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -1875,7 +2365,7 @@
       <c r="F42">
         <v>3</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>4</v>
       </c>
       <c r="H42">
@@ -1884,10 +2374,19 @@
       <c r="I42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1913,10 +2412,19 @@
       <c r="I43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1942,10 +2450,19 @@
       <c r="I44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1971,10 +2488,19 @@
       <c r="I45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1994,16 +2520,25 @@
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>8</v>
       </c>
       <c r="I46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2029,97 +2564,133 @@
       <c r="I47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
         <v>77</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>8</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -2145,8 +2716,17 @@
       <c r="I51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2754,17 @@
       <c r="I52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2203,8 +2792,17 @@
       <c r="I53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2232,8 +2830,17 @@
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2261,8 +2868,17 @@
       <c r="I55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2290,8 +2906,17 @@
       <c r="I56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2319,8 +2944,17 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2345,11 +2979,20 @@
       <c r="H58">
         <v>7</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="2">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2377,8 +3020,17 @@
       <c r="I59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -2406,8 +3058,17 @@
       <c r="I60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -2435,8 +3096,17 @@
       <c r="I61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2464,8 +3134,17 @@
       <c r="I62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2493,8 +3172,14 @@
       <c r="I63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2522,8 +3207,14 @@
       <c r="I64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2551,8 +3242,14 @@
       <c r="I65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -2580,8 +3277,14 @@
       <c r="I66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -2609,8 +3312,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2638,8 +3347,14 @@
       <c r="I68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2667,8 +3382,14 @@
       <c r="I69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +3417,14 @@
       <c r="I70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70">
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -2725,8 +3452,14 @@
       <c r="I71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +3487,14 @@
       <c r="I72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="2">
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -2783,8 +3522,14 @@
       <c r="I73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -2812,8 +3557,14 @@
       <c r="I74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -2841,8 +3592,14 @@
       <c r="I75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -2870,8 +3627,14 @@
       <c r="I76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -2899,8 +3662,14 @@
       <c r="I77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -2928,8 +3697,14 @@
       <c r="I78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -2957,8 +3732,14 @@
       <c r="I79">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -2986,8 +3767,14 @@
       <c r="I80">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <v>7</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -3014,6 +3801,748 @@
       </c>
       <c r="I81">
         <v>8</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>9</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
+      </c>
+      <c r="L89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>9</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>9</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>10</v>
+      </c>
+      <c r="L93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="L94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>9</v>
+      </c>
+      <c r="J97">
+        <v>7</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>9</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/staffing/staff_list.xlsx
+++ b/staffing/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB614A1E-526E-48F5-AB56-1A79405DD06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF4D48-475A-41FC-B168-0807338A5DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="3240" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>名前</t>
   </si>
@@ -366,10 +366,6 @@
   </si>
   <si>
     <t>入出庫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -714,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -731,18 +727,17 @@
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.25" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,19 +766,13 @@
         <v>101</v>
       </c>
       <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -817,14 +806,8 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -858,14 +841,8 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -899,14 +876,8 @@
       <c r="K4">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -940,14 +911,8 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -981,14 +946,8 @@
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1022,14 +981,8 @@
       <c r="K7">
         <v>8</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1063,14 +1016,8 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1104,14 +1051,8 @@
       <c r="K9">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1145,14 +1086,8 @@
       <c r="K10">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1186,14 +1121,8 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1227,14 +1156,8 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1268,14 +1191,8 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1309,14 +1226,8 @@
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1350,11 +1261,8 @@
       <c r="K15">
         <v>4</v>
       </c>
-      <c r="L15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1388,11 +1296,8 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1426,11 +1331,8 @@
       <c r="K17">
         <v>6</v>
       </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1464,15 +1366,8 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <f>SUM(N1:N17)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1506,11 +1401,8 @@
       <c r="K19">
         <v>6</v>
       </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1544,11 +1436,8 @@
       <c r="K20">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1582,11 +1471,8 @@
       <c r="K21">
         <v>10</v>
       </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1620,11 +1506,8 @@
       <c r="K22">
         <v>4</v>
       </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1658,11 +1541,8 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1696,11 +1576,8 @@
       <c r="K24">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1734,11 +1611,8 @@
       <c r="K25">
         <v>10</v>
       </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1772,11 +1646,8 @@
       <c r="K26">
         <v>7</v>
       </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1810,11 +1681,8 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1848,11 +1716,8 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1886,11 +1751,8 @@
       <c r="K29">
         <v>4</v>
       </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1924,11 +1786,8 @@
       <c r="K30">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1962,11 +1821,8 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2000,11 +1856,8 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2038,11 +1891,8 @@
       <c r="K33">
         <v>10</v>
       </c>
-      <c r="L33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2076,11 +1926,8 @@
       <c r="K34">
         <v>7</v>
       </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2114,11 +1961,8 @@
       <c r="K35">
         <v>10</v>
       </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2152,11 +1996,8 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2190,11 +2031,8 @@
       <c r="K37">
         <v>5</v>
       </c>
-      <c r="L37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2228,11 +2066,8 @@
       <c r="K38">
         <v>7</v>
       </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="39" spans="1:11" ht="18" customHeight="1">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2266,11 +2101,8 @@
       <c r="K39">
         <v>9</v>
       </c>
-      <c r="L39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2304,11 +2136,8 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2342,11 +2171,8 @@
       <c r="K41">
         <v>3</v>
       </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2380,11 +2206,8 @@
       <c r="K42">
         <v>5</v>
       </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2418,11 +2241,8 @@
       <c r="K43">
         <v>10</v>
       </c>
-      <c r="L43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2456,11 +2276,8 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2494,11 +2311,8 @@
       <c r="K45">
         <v>5</v>
       </c>
-      <c r="L45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2532,11 +2346,8 @@
       <c r="K46">
         <v>3</v>
       </c>
-      <c r="L46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2570,11 +2381,8 @@
       <c r="K47">
         <v>9</v>
       </c>
-      <c r="L47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2608,11 +2416,8 @@
       <c r="K48">
         <v>2</v>
       </c>
-      <c r="L48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2646,11 +2451,8 @@
       <c r="K49">
         <v>6</v>
       </c>
-      <c r="L49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2684,11 +2486,8 @@
       <c r="K50">
         <v>6</v>
       </c>
-      <c r="L50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -2722,11 +2521,8 @@
       <c r="K51">
         <v>7</v>
       </c>
-      <c r="L51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2760,11 +2556,8 @@
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2798,11 +2591,8 @@
       <c r="K53">
         <v>5</v>
       </c>
-      <c r="L53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2836,11 +2626,8 @@
       <c r="K54">
         <v>10</v>
       </c>
-      <c r="L54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2874,11 +2661,8 @@
       <c r="K55">
         <v>9</v>
       </c>
-      <c r="L55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2912,11 +2696,8 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2950,11 +2731,8 @@
       <c r="K57">
         <v>5</v>
       </c>
-      <c r="L57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2988,11 +2766,8 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3026,11 +2801,8 @@
       <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -3064,11 +2836,8 @@
       <c r="K60">
         <v>2</v>
       </c>
-      <c r="L60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3102,11 +2871,8 @@
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -3140,11 +2906,8 @@
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -3808,11 +3571,8 @@
       <c r="K81">
         <v>8</v>
       </c>
-      <c r="L81" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -3846,11 +3606,8 @@
       <c r="K82">
         <v>2</v>
       </c>
-      <c r="L82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>64</v>
       </c>
@@ -3885,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3920,7 +3677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -3955,7 +3712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -3990,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -4024,11 +3781,8 @@
       <c r="K87">
         <v>3</v>
       </c>
-      <c r="L87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -4062,11 +3816,8 @@
       <c r="K88">
         <v>4</v>
       </c>
-      <c r="L88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -4100,11 +3851,8 @@
       <c r="K89">
         <v>10</v>
       </c>
-      <c r="L89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -4139,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -4174,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -4208,11 +3956,8 @@
       <c r="K92">
         <v>10</v>
       </c>
-      <c r="L92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4246,11 +3991,8 @@
       <c r="K93">
         <v>10</v>
       </c>
-      <c r="L93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -4284,11 +4026,8 @@
       <c r="K94">
         <v>7</v>
       </c>
-      <c r="L94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4322,11 +4061,8 @@
       <c r="K95">
         <v>8</v>
       </c>
-      <c r="L95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -4361,7 +4097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -4396,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -4431,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -4465,11 +4201,8 @@
       <c r="K99">
         <v>4</v>
       </c>
-      <c r="L99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4503,11 +4236,8 @@
       <c r="K100">
         <v>3</v>
       </c>
-      <c r="L100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4540,9 +4270,6 @@
       </c>
       <c r="K101">
         <v>6</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/staffing/staff_list.xlsx
+++ b/staffing/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF4D48-475A-41FC-B168-0807338A5DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D4DFA-CA9A-4F22-9CE6-A1D6F483B940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="3240" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/staffing/staff_list.xlsx
+++ b/staffing/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D4DFA-CA9A-4F22-9CE6-A1D6F483B940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6CFC50-96C7-40E7-8D6C-9DE1C5623FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,12 +713,12 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -776,8 +776,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>6</v>
